--- a/Team-Data/2007-08/1-29-2007-08.xlsx
+++ b/Team-Data/2007-08/1-29-2007-08.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,16 +733,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E2" t="n">
         <v>19</v>
       </c>
       <c r="F2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G2" t="n">
-        <v>0.452</v>
+        <v>0.463</v>
       </c>
       <c r="H2" t="n">
         <v>48.6</v>
@@ -684,43 +751,43 @@
         <v>34.6</v>
       </c>
       <c r="J2" t="n">
-        <v>78.59999999999999</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="K2" t="n">
-        <v>0.441</v>
+        <v>0.444</v>
       </c>
       <c r="L2" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="M2" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="N2" t="n">
-        <v>0.322</v>
+        <v>0.323</v>
       </c>
       <c r="O2" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="P2" t="n">
-        <v>28.2</v>
+        <v>28.3</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.77</v>
+        <v>0.769</v>
       </c>
       <c r="R2" t="n">
-        <v>12.3</v>
+        <v>12</v>
       </c>
       <c r="S2" t="n">
-        <v>29.9</v>
+        <v>30</v>
       </c>
       <c r="T2" t="n">
-        <v>42.2</v>
+        <v>42</v>
       </c>
       <c r="U2" t="n">
-        <v>21.1</v>
+        <v>21.3</v>
       </c>
       <c r="V2" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="W2" t="n">
         <v>8</v>
@@ -729,10 +796,10 @@
         <v>5.8</v>
       </c>
       <c r="Y2" t="n">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="Z2" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="AA2" t="n">
         <v>22.4</v>
@@ -741,7 +808,7 @@
         <v>94.90000000000001</v>
       </c>
       <c r="AC2" t="n">
-        <v>-1.5</v>
+        <v>-0.7</v>
       </c>
       <c r="AD2" t="n">
         <v>29</v>
@@ -762,10 +829,10 @@
         <v>29</v>
       </c>
       <c r="AJ2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AK2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL2" t="n">
         <v>29</v>
@@ -786,19 +853,19 @@
         <v>8</v>
       </c>
       <c r="AR2" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AS2" t="n">
         <v>19</v>
       </c>
       <c r="AT2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AU2" t="n">
         <v>18</v>
       </c>
       <c r="AV2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AW2" t="n">
         <v>7</v>
@@ -807,7 +874,7 @@
         <v>3</v>
       </c>
       <c r="AY2" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AZ2" t="n">
         <v>21</v>
@@ -819,7 +886,7 @@
         <v>23</v>
       </c>
       <c r="BC2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-29-2007-08</t>
+          <t>2008-01-29</t>
         </is>
       </c>
     </row>
@@ -848,43 +915,43 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E3" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F3" t="n">
         <v>8</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8139999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="H3" t="n">
         <v>48.2</v>
       </c>
       <c r="I3" t="n">
-        <v>35.5</v>
+        <v>35.4</v>
       </c>
       <c r="J3" t="n">
-        <v>75.3</v>
+        <v>75.2</v>
       </c>
       <c r="K3" t="n">
-        <v>0.472</v>
+        <v>0.471</v>
       </c>
       <c r="L3" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="M3" t="n">
         <v>19.3</v>
       </c>
       <c r="N3" t="n">
-        <v>0.377</v>
+        <v>0.374</v>
       </c>
       <c r="O3" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="P3" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="Q3" t="n">
         <v>0.767</v>
@@ -893,10 +960,10 @@
         <v>9.800000000000001</v>
       </c>
       <c r="S3" t="n">
-        <v>31.7</v>
+        <v>31.4</v>
       </c>
       <c r="T3" t="n">
-        <v>41.5</v>
+        <v>41.2</v>
       </c>
       <c r="U3" t="n">
         <v>21.9</v>
@@ -905,28 +972,28 @@
         <v>15.1</v>
       </c>
       <c r="W3" t="n">
-        <v>9</v>
+        <v>8.9</v>
       </c>
       <c r="X3" t="n">
         <v>4.4</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Z3" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="AA3" t="n">
         <v>22.9</v>
       </c>
       <c r="AB3" t="n">
-        <v>99.3</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="AC3" t="n">
-        <v>11.1</v>
+        <v>10.7</v>
       </c>
       <c r="AD3" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -947,7 +1014,7 @@
         <v>30</v>
       </c>
       <c r="AK3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL3" t="n">
         <v>9</v>
@@ -956,25 +1023,25 @@
         <v>10</v>
       </c>
       <c r="AN3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AO3" t="n">
         <v>8</v>
       </c>
       <c r="AP3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AQ3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR3" t="n">
         <v>26</v>
       </c>
       <c r="AS3" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AT3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AU3" t="n">
         <v>10</v>
@@ -992,7 +1059,7 @@
         <v>12</v>
       </c>
       <c r="AZ3" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BA3" t="n">
         <v>7</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-29-2007-08</t>
+          <t>2008-01-29</t>
         </is>
       </c>
     </row>
@@ -1108,19 +1175,19 @@
         <v>-3.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AE4" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG4" t="n">
         <v>21</v>
       </c>
-      <c r="AF4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>22</v>
-      </c>
       <c r="AH4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI4" t="n">
         <v>24</v>
@@ -1129,7 +1196,7 @@
         <v>21</v>
       </c>
       <c r="AK4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL4" t="n">
         <v>16</v>
@@ -1138,7 +1205,7 @@
         <v>16</v>
       </c>
       <c r="AN4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO4" t="n">
         <v>21</v>
@@ -1171,16 +1238,16 @@
         <v>14</v>
       </c>
       <c r="AY4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AZ4" t="n">
         <v>25</v>
       </c>
       <c r="BA4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BB4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BC4" t="n">
         <v>22</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-29-2007-08</t>
+          <t>2008-01-29</t>
         </is>
       </c>
     </row>
@@ -1212,16 +1279,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F5" t="n">
         <v>26</v>
       </c>
       <c r="G5" t="n">
-        <v>0.409</v>
+        <v>0.395</v>
       </c>
       <c r="H5" t="n">
         <v>48.5</v>
@@ -1230,7 +1297,7 @@
         <v>35.8</v>
       </c>
       <c r="J5" t="n">
-        <v>85</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="K5" t="n">
         <v>0.421</v>
@@ -1239,28 +1306,28 @@
         <v>5.4</v>
       </c>
       <c r="M5" t="n">
-        <v>15.8</v>
+        <v>16</v>
       </c>
       <c r="N5" t="n">
-        <v>0.341</v>
+        <v>0.339</v>
       </c>
       <c r="O5" t="n">
-        <v>17.5</v>
+        <v>17.4</v>
       </c>
       <c r="P5" t="n">
-        <v>23.4</v>
+        <v>23.2</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.749</v>
+        <v>0.75</v>
       </c>
       <c r="R5" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="S5" t="n">
         <v>29.7</v>
       </c>
       <c r="T5" t="n">
-        <v>43.8</v>
+        <v>43.7</v>
       </c>
       <c r="U5" t="n">
         <v>21.3</v>
@@ -1269,7 +1336,7 @@
         <v>14.3</v>
       </c>
       <c r="W5" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="X5" t="n">
         <v>4.9</v>
@@ -1281,25 +1348,25 @@
         <v>21.2</v>
       </c>
       <c r="AA5" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="AB5" t="n">
-        <v>94.5</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="AC5" t="n">
-        <v>-2.8</v>
+        <v>-3.1</v>
       </c>
       <c r="AD5" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AE5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF5" t="n">
         <v>19</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH5" t="n">
         <v>6</v>
@@ -1308,7 +1375,7 @@
         <v>23</v>
       </c>
       <c r="AJ5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AK5" t="n">
         <v>30</v>
@@ -1320,13 +1387,13 @@
         <v>24</v>
       </c>
       <c r="AN5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AO5" t="n">
+        <v>24</v>
+      </c>
+      <c r="AP5" t="n">
         <v>23</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>21</v>
       </c>
       <c r="AQ5" t="n">
         <v>18</v>
@@ -1335,7 +1402,7 @@
         <v>1</v>
       </c>
       <c r="AS5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AT5" t="n">
         <v>7</v>
@@ -1347,25 +1414,25 @@
         <v>10</v>
       </c>
       <c r="AW5" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AX5" t="n">
         <v>15</v>
       </c>
       <c r="AY5" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AZ5" t="n">
         <v>14</v>
       </c>
       <c r="BA5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB5" t="n">
         <v>26</v>
       </c>
       <c r="BC5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-29-2007-08</t>
+          <t>2008-01-29</t>
         </is>
       </c>
     </row>
@@ -1472,13 +1539,13 @@
         <v>-0.9</v>
       </c>
       <c r="AD6" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="AE6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG6" t="n">
         <v>13</v>
@@ -1487,10 +1554,10 @@
         <v>1</v>
       </c>
       <c r="AI6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AK6" t="n">
         <v>26</v>
@@ -1511,7 +1578,7 @@
         <v>16</v>
       </c>
       <c r="AQ6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AR6" t="n">
         <v>3</v>
@@ -1520,7 +1587,7 @@
         <v>12</v>
       </c>
       <c r="AT6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU6" t="n">
         <v>26</v>
@@ -1529,7 +1596,7 @@
         <v>11</v>
       </c>
       <c r="AW6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX6" t="n">
         <v>19</v>
@@ -1547,7 +1614,7 @@
         <v>16</v>
       </c>
       <c r="BC6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-29-2007-08</t>
+          <t>2008-01-29</t>
         </is>
       </c>
     </row>
@@ -1654,34 +1721,34 @@
         <v>5.1</v>
       </c>
       <c r="AD7" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AE7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF7" t="n">
         <v>3</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH7" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI7" t="n">
         <v>11</v>
       </c>
       <c r="AJ7" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AL7" t="n">
         <v>18</v>
       </c>
       <c r="AM7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AN7" t="n">
         <v>15</v>
@@ -1702,7 +1769,7 @@
         <v>7</v>
       </c>
       <c r="AT7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU7" t="n">
         <v>22</v>
@@ -1723,7 +1790,7 @@
         <v>22</v>
       </c>
       <c r="BA7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BB7" t="n">
         <v>8</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-29-2007-08</t>
+          <t>2008-01-29</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>2.1</v>
       </c>
       <c r="AD8" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AE8" t="n">
         <v>11</v>
@@ -1845,19 +1912,19 @@
         <v>8</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI8" t="n">
         <v>5</v>
       </c>
       <c r="AJ8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK8" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL8" t="n">
         <v>17</v>
@@ -1878,7 +1945,7 @@
         <v>14</v>
       </c>
       <c r="AR8" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AS8" t="n">
         <v>4</v>
@@ -1887,7 +1954,7 @@
         <v>2</v>
       </c>
       <c r="AU8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV8" t="n">
         <v>26</v>
@@ -1896,7 +1963,7 @@
         <v>1</v>
       </c>
       <c r="AX8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY8" t="n">
         <v>18</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-29-2007-08</t>
+          <t>2008-01-29</t>
         </is>
       </c>
     </row>
@@ -1940,28 +2007,28 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E9" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F9" t="n">
         <v>13</v>
       </c>
       <c r="G9" t="n">
-        <v>0.711</v>
+        <v>0.705</v>
       </c>
       <c r="H9" t="n">
         <v>48.1</v>
       </c>
       <c r="I9" t="n">
-        <v>36.6</v>
+        <v>36.4</v>
       </c>
       <c r="J9" t="n">
-        <v>79.5</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="K9" t="n">
-        <v>0.46</v>
+        <v>0.459</v>
       </c>
       <c r="L9" t="n">
         <v>5.8</v>
@@ -1970,25 +2037,25 @@
         <v>16</v>
       </c>
       <c r="N9" t="n">
-        <v>0.365</v>
+        <v>0.364</v>
       </c>
       <c r="O9" t="n">
         <v>18.9</v>
       </c>
       <c r="P9" t="n">
-        <v>24.9</v>
+        <v>24.8</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.761</v>
+        <v>0.763</v>
       </c>
       <c r="R9" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="S9" t="n">
         <v>29.2</v>
       </c>
       <c r="T9" t="n">
-        <v>40.8</v>
+        <v>40.6</v>
       </c>
       <c r="U9" t="n">
         <v>22.5</v>
@@ -2000,28 +2067,28 @@
         <v>7.3</v>
       </c>
       <c r="X9" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Y9" t="n">
         <v>3.7</v>
       </c>
       <c r="Z9" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AA9" t="n">
         <v>20.3</v>
       </c>
       <c r="AB9" t="n">
-        <v>97.90000000000001</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="AC9" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AE9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF9" t="n">
         <v>3</v>
@@ -2030,13 +2097,13 @@
         <v>4</v>
       </c>
       <c r="AH9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI9" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ9" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK9" t="n">
         <v>9</v>
@@ -2054,19 +2121,19 @@
         <v>13</v>
       </c>
       <c r="AP9" t="n">
+        <v>18</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AR9" t="n">
         <v>17</v>
       </c>
-      <c r="AQ9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>16</v>
-      </c>
       <c r="AS9" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AT9" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AU9" t="n">
         <v>9</v>
@@ -2078,7 +2145,7 @@
         <v>18</v>
       </c>
       <c r="AX9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY9" t="n">
         <v>1</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-29-2007-08</t>
+          <t>2008-01-29</t>
         </is>
       </c>
     </row>
@@ -2122,52 +2189,52 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E10" t="n">
         <v>27</v>
       </c>
       <c r="F10" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G10" t="n">
-        <v>0.587</v>
+        <v>0.6</v>
       </c>
       <c r="H10" t="n">
         <v>48.3</v>
       </c>
       <c r="I10" t="n">
-        <v>40</v>
+        <v>40.1</v>
       </c>
       <c r="J10" t="n">
         <v>88.5</v>
       </c>
       <c r="K10" t="n">
-        <v>0.452</v>
+        <v>0.453</v>
       </c>
       <c r="L10" t="n">
-        <v>9.800000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="M10" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="N10" t="n">
-        <v>0.351</v>
+        <v>0.35</v>
       </c>
       <c r="O10" t="n">
         <v>19.3</v>
       </c>
       <c r="P10" t="n">
-        <v>25.9</v>
+        <v>25.8</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.746</v>
+        <v>0.747</v>
       </c>
       <c r="R10" t="n">
         <v>12.2</v>
       </c>
       <c r="S10" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="T10" t="n">
         <v>42.3</v>
@@ -2176,7 +2243,7 @@
         <v>22.9</v>
       </c>
       <c r="V10" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="W10" t="n">
         <v>9.1</v>
@@ -2188,28 +2255,28 @@
         <v>5.1</v>
       </c>
       <c r="Z10" t="n">
-        <v>23.5</v>
+        <v>23.4</v>
       </c>
       <c r="AA10" t="n">
         <v>22.6</v>
       </c>
       <c r="AB10" t="n">
-        <v>109.1</v>
+        <v>109.2</v>
       </c>
       <c r="AC10" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="AD10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG10" t="n">
         <v>9</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>12</v>
       </c>
       <c r="AH10" t="n">
         <v>15</v>
@@ -2242,13 +2309,13 @@
         <v>19</v>
       </c>
       <c r="AR10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AS10" t="n">
         <v>18</v>
       </c>
       <c r="AT10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AU10" t="n">
         <v>7</v>
@@ -2260,7 +2327,7 @@
         <v>3</v>
       </c>
       <c r="AX10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AY10" t="n">
         <v>19</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-29-2007-08</t>
+          <t>2008-01-29</t>
         </is>
       </c>
     </row>
@@ -2304,25 +2371,25 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E11" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F11" t="n">
         <v>20</v>
       </c>
       <c r="G11" t="n">
-        <v>0.556</v>
+        <v>0.545</v>
       </c>
       <c r="H11" t="n">
         <v>48.2</v>
       </c>
       <c r="I11" t="n">
-        <v>36.2</v>
+        <v>36.1</v>
       </c>
       <c r="J11" t="n">
-        <v>81.59999999999999</v>
+        <v>81.5</v>
       </c>
       <c r="K11" t="n">
         <v>0.443</v>
@@ -2337,31 +2404,31 @@
         <v>0.334</v>
       </c>
       <c r="O11" t="n">
-        <v>16.7</v>
+        <v>16.5</v>
       </c>
       <c r="P11" t="n">
-        <v>22.9</v>
+        <v>22.7</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.73</v>
+        <v>0.727</v>
       </c>
       <c r="R11" t="n">
         <v>12.4</v>
       </c>
       <c r="S11" t="n">
-        <v>31.6</v>
+        <v>31.4</v>
       </c>
       <c r="T11" t="n">
-        <v>44</v>
+        <v>43.9</v>
       </c>
       <c r="U11" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="V11" t="n">
         <v>14.8</v>
       </c>
       <c r="W11" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="X11" t="n">
         <v>5.5</v>
@@ -2370,31 +2437,31 @@
         <v>4.4</v>
       </c>
       <c r="Z11" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="AA11" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="AB11" t="n">
-        <v>95.7</v>
+        <v>95.3</v>
       </c>
       <c r="AC11" t="n">
         <v>2</v>
       </c>
       <c r="AD11" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AE11" t="n">
         <v>13</v>
       </c>
       <c r="AF11" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AH11" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI11" t="n">
         <v>18</v>
@@ -2403,7 +2470,7 @@
         <v>12</v>
       </c>
       <c r="AK11" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL11" t="n">
         <v>13</v>
@@ -2412,13 +2479,13 @@
         <v>8</v>
       </c>
       <c r="AN11" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO11" t="n">
         <v>27</v>
       </c>
       <c r="AP11" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AQ11" t="n">
         <v>22</v>
@@ -2427,37 +2494,37 @@
         <v>6</v>
       </c>
       <c r="AS11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AT11" t="n">
         <v>6</v>
       </c>
       <c r="AU11" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AV11" t="n">
         <v>13</v>
       </c>
       <c r="AW11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AX11" t="n">
         <v>4</v>
       </c>
       <c r="AY11" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AZ11" t="n">
         <v>6</v>
       </c>
       <c r="BA11" t="n">
+        <v>22</v>
+      </c>
+      <c r="BB11" t="n">
         <v>21</v>
       </c>
-      <c r="BB11" t="n">
-        <v>20</v>
-      </c>
       <c r="BC11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-29-2007-08</t>
+          <t>2008-01-29</t>
         </is>
       </c>
     </row>
@@ -2486,16 +2553,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E12" t="n">
         <v>19</v>
       </c>
       <c r="F12" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G12" t="n">
-        <v>0.413</v>
+        <v>0.422</v>
       </c>
       <c r="H12" t="n">
         <v>48.3</v>
@@ -2504,25 +2571,25 @@
         <v>38.1</v>
       </c>
       <c r="J12" t="n">
-        <v>85.90000000000001</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="K12" t="n">
         <v>0.443</v>
       </c>
       <c r="L12" t="n">
-        <v>8.699999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="M12" t="n">
         <v>23.9</v>
       </c>
       <c r="N12" t="n">
-        <v>0.363</v>
+        <v>0.36</v>
       </c>
       <c r="O12" t="n">
         <v>18.3</v>
       </c>
       <c r="P12" t="n">
-        <v>24.1</v>
+        <v>24</v>
       </c>
       <c r="Q12" t="n">
         <v>0.762</v>
@@ -2531,49 +2598,49 @@
         <v>11.6</v>
       </c>
       <c r="S12" t="n">
-        <v>33</v>
+        <v>33.1</v>
       </c>
       <c r="T12" t="n">
-        <v>44.6</v>
+        <v>44.7</v>
       </c>
       <c r="U12" t="n">
         <v>23.2</v>
       </c>
       <c r="V12" t="n">
-        <v>16.6</v>
+        <v>16.7</v>
       </c>
       <c r="W12" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="X12" t="n">
         <v>5</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Z12" t="n">
-        <v>24.4</v>
+        <v>24.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="AB12" t="n">
         <v>103.2</v>
       </c>
       <c r="AC12" t="n">
-        <v>-1.9</v>
+        <v>-1.8</v>
       </c>
       <c r="AD12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE12" t="n">
         <v>17</v>
       </c>
       <c r="AF12" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG12" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AH12" t="n">
         <v>15</v>
@@ -2585,7 +2652,7 @@
         <v>2</v>
       </c>
       <c r="AK12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL12" t="n">
         <v>4</v>
@@ -2594,7 +2661,7 @@
         <v>3</v>
       </c>
       <c r="AN12" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AO12" t="n">
         <v>16</v>
@@ -2603,7 +2670,7 @@
         <v>20</v>
       </c>
       <c r="AQ12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AR12" t="n">
         <v>15</v>
@@ -2612,7 +2679,7 @@
         <v>3</v>
       </c>
       <c r="AT12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU12" t="n">
         <v>6</v>
@@ -2624,16 +2691,16 @@
         <v>11</v>
       </c>
       <c r="AX12" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AY12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ12" t="n">
         <v>29</v>
       </c>
       <c r="BA12" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BB12" t="n">
         <v>7</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-29-2007-08</t>
+          <t>2008-01-29</t>
         </is>
       </c>
     </row>
@@ -2746,13 +2813,13 @@
         <v>-4.7</v>
       </c>
       <c r="AD13" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE13" t="n">
         <v>26</v>
       </c>
       <c r="AF13" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG13" t="n">
         <v>26</v>
@@ -2764,22 +2831,22 @@
         <v>28</v>
       </c>
       <c r="AJ13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK13" t="n">
         <v>27</v>
       </c>
       <c r="AL13" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AM13" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AN13" t="n">
         <v>28</v>
       </c>
       <c r="AO13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AP13" t="n">
         <v>9</v>
@@ -2791,10 +2858,10 @@
         <v>28</v>
       </c>
       <c r="AS13" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AT13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AU13" t="n">
         <v>11</v>
@@ -2815,10 +2882,10 @@
         <v>20</v>
       </c>
       <c r="BA13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BB13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BC13" t="n">
         <v>24</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-29-2007-08</t>
+          <t>2008-01-29</t>
         </is>
       </c>
     </row>
@@ -2850,94 +2917,94 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E14" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F14" t="n">
         <v>15</v>
       </c>
       <c r="G14" t="n">
-        <v>0.651</v>
+        <v>0.643</v>
       </c>
       <c r="H14" t="n">
         <v>48.1</v>
       </c>
       <c r="I14" t="n">
-        <v>39</v>
+        <v>38.9</v>
       </c>
       <c r="J14" t="n">
         <v>82.09999999999999</v>
       </c>
       <c r="K14" t="n">
-        <v>0.475</v>
+        <v>0.474</v>
       </c>
       <c r="L14" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="M14" t="n">
-        <v>19.6</v>
+        <v>19.4</v>
       </c>
       <c r="N14" t="n">
-        <v>0.367</v>
+        <v>0.366</v>
       </c>
       <c r="O14" t="n">
         <v>22.1</v>
       </c>
       <c r="P14" t="n">
-        <v>29.5</v>
+        <v>29.4</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.751</v>
+        <v>0.752</v>
       </c>
       <c r="R14" t="n">
         <v>11</v>
       </c>
       <c r="S14" t="n">
-        <v>33.9</v>
+        <v>34</v>
       </c>
       <c r="T14" t="n">
-        <v>45</v>
+        <v>44.9</v>
       </c>
       <c r="U14" t="n">
-        <v>23.5</v>
+        <v>23.4</v>
       </c>
       <c r="V14" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="W14" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="X14" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Z14" t="n">
         <v>21.6</v>
       </c>
       <c r="AA14" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="AB14" t="n">
-        <v>107.3</v>
+        <v>107</v>
       </c>
       <c r="AC14" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="AD14" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AE14" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AF14" t="n">
         <v>6</v>
       </c>
       <c r="AG14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH14" t="n">
         <v>24</v>
@@ -2979,25 +3046,25 @@
         <v>3</v>
       </c>
       <c r="AU14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV14" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AW14" t="n">
         <v>5</v>
       </c>
       <c r="AX14" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AY14" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ14" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BA14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB14" t="n">
         <v>3</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-29-2007-08</t>
+          <t>2008-01-29</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>-4.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AE15" t="n">
         <v>26</v>
@@ -3140,31 +3207,31 @@
         <v>5</v>
       </c>
       <c r="AN15" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AO15" t="n">
         <v>15</v>
       </c>
       <c r="AP15" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AQ15" t="n">
         <v>20</v>
       </c>
       <c r="AR15" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AS15" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AT15" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AU15" t="n">
         <v>21</v>
       </c>
       <c r="AV15" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AW15" t="n">
         <v>29</v>
@@ -3173,7 +3240,7 @@
         <v>5</v>
       </c>
       <c r="AY15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ15" t="n">
         <v>4</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-29-2007-08</t>
+          <t>2008-01-29</t>
         </is>
       </c>
     </row>
@@ -3214,43 +3281,43 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
       </c>
       <c r="F16" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G16" t="n">
-        <v>0.205</v>
+        <v>0.209</v>
       </c>
       <c r="H16" t="n">
         <v>48.3</v>
       </c>
       <c r="I16" t="n">
-        <v>35.2</v>
+        <v>35.4</v>
       </c>
       <c r="J16" t="n">
         <v>77.2</v>
       </c>
       <c r="K16" t="n">
-        <v>0.456</v>
+        <v>0.458</v>
       </c>
       <c r="L16" t="n">
         <v>4.6</v>
       </c>
       <c r="M16" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="N16" t="n">
-        <v>0.338</v>
+        <v>0.339</v>
       </c>
       <c r="O16" t="n">
-        <v>18.2</v>
+        <v>18</v>
       </c>
       <c r="P16" t="n">
-        <v>25.8</v>
+        <v>25.5</v>
       </c>
       <c r="Q16" t="n">
         <v>0.706</v>
@@ -3259,22 +3326,22 @@
         <v>9.4</v>
       </c>
       <c r="S16" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="T16" t="n">
-        <v>38.6</v>
+        <v>38.7</v>
       </c>
       <c r="U16" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="V16" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="W16" t="n">
         <v>7.4</v>
       </c>
       <c r="X16" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Y16" t="n">
         <v>3.7</v>
@@ -3283,28 +3350,28 @@
         <v>20.6</v>
       </c>
       <c r="AA16" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="AB16" t="n">
-        <v>93.2</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="AC16" t="n">
-        <v>-6.8</v>
+        <v>-6.3</v>
       </c>
       <c r="AD16" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AE16" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AF16" t="n">
         <v>28</v>
       </c>
       <c r="AG16" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AH16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI16" t="n">
         <v>26</v>
@@ -3313,7 +3380,7 @@
         <v>29</v>
       </c>
       <c r="AK16" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AL16" t="n">
         <v>25</v>
@@ -3322,7 +3389,7 @@
         <v>25</v>
       </c>
       <c r="AN16" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AO16" t="n">
         <v>18</v>
@@ -3337,7 +3404,7 @@
         <v>29</v>
       </c>
       <c r="AS16" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AT16" t="n">
         <v>30</v>
@@ -3349,7 +3416,7 @@
         <v>15</v>
       </c>
       <c r="AW16" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AX16" t="n">
         <v>17</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-29-2007-08</t>
+          <t>2008-01-29</t>
         </is>
       </c>
     </row>
@@ -3396,43 +3463,43 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E17" t="n">
         <v>18</v>
       </c>
       <c r="F17" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G17" t="n">
-        <v>0.391</v>
+        <v>0.4</v>
       </c>
       <c r="H17" t="n">
         <v>48.4</v>
       </c>
       <c r="I17" t="n">
-        <v>36.2</v>
+        <v>36.3</v>
       </c>
       <c r="J17" t="n">
         <v>80.40000000000001</v>
       </c>
       <c r="K17" t="n">
-        <v>0.45</v>
+        <v>0.452</v>
       </c>
       <c r="L17" t="n">
         <v>5.6</v>
       </c>
       <c r="M17" t="n">
-        <v>16.7</v>
+        <v>16.5</v>
       </c>
       <c r="N17" t="n">
-        <v>0.337</v>
+        <v>0.34</v>
       </c>
       <c r="O17" t="n">
-        <v>16.7</v>
+        <v>16.8</v>
       </c>
       <c r="P17" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="Q17" t="n">
         <v>0.74</v>
@@ -3450,7 +3517,7 @@
         <v>21.5</v>
       </c>
       <c r="V17" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="W17" t="n">
         <v>6.9</v>
@@ -3462,55 +3529,55 @@
         <v>5.4</v>
       </c>
       <c r="Z17" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="AA17" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AB17" t="n">
-        <v>94.8</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="AC17" t="n">
         <v>-6</v>
       </c>
       <c r="AD17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE17" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG17" t="n">
         <v>21</v>
       </c>
-      <c r="AF17" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>23</v>
-      </c>
       <c r="AH17" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI17" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AJ17" t="n">
         <v>16</v>
       </c>
       <c r="AK17" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AL17" t="n">
         <v>22</v>
       </c>
       <c r="AM17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN17" t="n">
         <v>20</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>22</v>
       </c>
       <c r="AO17" t="n">
         <v>26</v>
       </c>
       <c r="AP17" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AQ17" t="n">
         <v>21</v>
@@ -3525,19 +3592,19 @@
         <v>26</v>
       </c>
       <c r="AU17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AV17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AW17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AX17" t="n">
         <v>23</v>
       </c>
       <c r="AY17" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AZ17" t="n">
         <v>19</v>
@@ -3546,7 +3613,7 @@
         <v>20</v>
       </c>
       <c r="BB17" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="BC17" t="n">
         <v>26</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-29-2007-08</t>
+          <t>2008-01-29</t>
         </is>
       </c>
     </row>
@@ -3578,55 +3645,55 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
       </c>
       <c r="F18" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G18" t="n">
-        <v>0.182</v>
+        <v>0.186</v>
       </c>
       <c r="H18" t="n">
         <v>48</v>
       </c>
       <c r="I18" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="J18" t="n">
-        <v>82.90000000000001</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="K18" t="n">
-        <v>0.44</v>
+        <v>0.441</v>
       </c>
       <c r="L18" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="M18" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="N18" t="n">
-        <v>0.337</v>
+        <v>0.343</v>
       </c>
       <c r="O18" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="P18" t="n">
-        <v>21.4</v>
+        <v>21.2</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.722</v>
+        <v>0.72</v>
       </c>
       <c r="R18" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="S18" t="n">
         <v>29.4</v>
       </c>
       <c r="T18" t="n">
-        <v>41.8</v>
+        <v>41.9</v>
       </c>
       <c r="U18" t="n">
         <v>18.9</v>
@@ -3635,7 +3702,7 @@
         <v>15.5</v>
       </c>
       <c r="W18" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="X18" t="n">
         <v>3.9</v>
@@ -3647,22 +3714,22 @@
         <v>23.8</v>
       </c>
       <c r="AA18" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="AB18" t="n">
-        <v>94</v>
+        <v>94.2</v>
       </c>
       <c r="AC18" t="n">
-        <v>-8.5</v>
+        <v>-8.4</v>
       </c>
       <c r="AD18" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
       </c>
       <c r="AF18" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AG18" t="n">
         <v>30</v>
@@ -3671,40 +3738,40 @@
         <v>29</v>
       </c>
       <c r="AI18" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ18" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AK18" t="n">
         <v>24</v>
       </c>
       <c r="AL18" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM18" t="n">
         <v>22</v>
       </c>
       <c r="AN18" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO18" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AP18" t="n">
         <v>28</v>
       </c>
       <c r="AQ18" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AR18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AS18" t="n">
         <v>22</v>
       </c>
       <c r="AT18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AU18" t="n">
         <v>28</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-29-2007-08</t>
+          <t>2008-01-29</t>
         </is>
       </c>
     </row>
@@ -3760,37 +3827,37 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E19" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F19" t="n">
         <v>26</v>
       </c>
       <c r="G19" t="n">
-        <v>0.422</v>
+        <v>0.409</v>
       </c>
       <c r="H19" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="I19" t="n">
-        <v>33.6</v>
+        <v>33.7</v>
       </c>
       <c r="J19" t="n">
-        <v>77.8</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="K19" t="n">
         <v>0.433</v>
       </c>
       <c r="L19" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="M19" t="n">
         <v>17</v>
       </c>
       <c r="N19" t="n">
-        <v>0.332</v>
+        <v>0.333</v>
       </c>
       <c r="O19" t="n">
         <v>20.7</v>
@@ -3799,16 +3866,16 @@
         <v>29</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.714</v>
+        <v>0.713</v>
       </c>
       <c r="R19" t="n">
         <v>12</v>
       </c>
       <c r="S19" t="n">
-        <v>30.4</v>
+        <v>30.3</v>
       </c>
       <c r="T19" t="n">
-        <v>42.4</v>
+        <v>42.2</v>
       </c>
       <c r="U19" t="n">
         <v>23.5</v>
@@ -3817,7 +3884,7 @@
         <v>15.7</v>
       </c>
       <c r="W19" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="X19" t="n">
         <v>4.7</v>
@@ -3826,31 +3893,31 @@
         <v>4.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="AA19" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="AB19" t="n">
-        <v>93.59999999999999</v>
+        <v>93.8</v>
       </c>
       <c r="AC19" t="n">
-        <v>-5.9</v>
+        <v>-6.2</v>
       </c>
       <c r="AD19" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AE19" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AF19" t="n">
         <v>19</v>
       </c>
       <c r="AG19" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AH19" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI19" t="n">
         <v>30</v>
@@ -3862,16 +3929,16 @@
         <v>29</v>
       </c>
       <c r="AL19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM19" t="n">
         <v>17</v>
       </c>
       <c r="AN19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO19" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP19" t="n">
         <v>4</v>
@@ -3886,16 +3953,16 @@
         <v>17</v>
       </c>
       <c r="AT19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV19" t="n">
         <v>25</v>
       </c>
       <c r="AW19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AX19" t="n">
         <v>16</v>
@@ -3907,13 +3974,13 @@
         <v>26</v>
       </c>
       <c r="BA19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BB19" t="n">
         <v>28</v>
       </c>
       <c r="BC19" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-29-2007-08</t>
+          <t>2008-01-29</t>
         </is>
       </c>
     </row>
@@ -4020,10 +4087,10 @@
         <v>6.9</v>
       </c>
       <c r="AD20" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AE20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF20" t="n">
         <v>2</v>
@@ -4032,7 +4099,7 @@
         <v>2</v>
       </c>
       <c r="AH20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI20" t="n">
         <v>6</v>
@@ -4041,7 +4108,7 @@
         <v>7</v>
       </c>
       <c r="AK20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL20" t="n">
         <v>7</v>
@@ -4053,7 +4120,7 @@
         <v>4</v>
       </c>
       <c r="AO20" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AP20" t="n">
         <v>30</v>
@@ -4077,13 +4144,13 @@
         <v>3</v>
       </c>
       <c r="AW20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AX20" t="n">
         <v>26</v>
       </c>
       <c r="AY20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ20" t="n">
         <v>2</v>
@@ -4092,7 +4159,7 @@
         <v>28</v>
       </c>
       <c r="BB20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BC20" t="n">
         <v>3</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-29-2007-08</t>
+          <t>2008-01-29</t>
         </is>
       </c>
     </row>
@@ -4124,85 +4191,85 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E21" t="n">
         <v>14</v>
       </c>
       <c r="F21" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G21" t="n">
-        <v>0.318</v>
+        <v>0.326</v>
       </c>
       <c r="H21" t="n">
         <v>48.2</v>
       </c>
       <c r="I21" t="n">
-        <v>35.2</v>
+        <v>35</v>
       </c>
       <c r="J21" t="n">
-        <v>80.2</v>
+        <v>80</v>
       </c>
       <c r="K21" t="n">
         <v>0.438</v>
       </c>
       <c r="L21" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="M21" t="n">
-        <v>16.9</v>
+        <v>17</v>
       </c>
       <c r="N21" t="n">
-        <v>0.336</v>
+        <v>0.33</v>
       </c>
       <c r="O21" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="P21" t="n">
         <v>26.3</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.718</v>
+        <v>0.715</v>
       </c>
       <c r="R21" t="n">
         <v>12.5</v>
       </c>
       <c r="S21" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="T21" t="n">
-        <v>41.8</v>
+        <v>41.7</v>
       </c>
       <c r="U21" t="n">
-        <v>18.3</v>
+        <v>18.2</v>
       </c>
       <c r="V21" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="W21" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="X21" t="n">
         <v>2.3</v>
       </c>
       <c r="Y21" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="Z21" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="AA21" t="n">
         <v>21.4</v>
       </c>
       <c r="AB21" t="n">
-        <v>94.90000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>-6</v>
+        <v>-5.9</v>
       </c>
       <c r="AD21" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AE21" t="n">
         <v>25</v>
@@ -4214,7 +4281,7 @@
         <v>25</v>
       </c>
       <c r="AH21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI21" t="n">
         <v>27</v>
@@ -4226,13 +4293,13 @@
         <v>25</v>
       </c>
       <c r="AL21" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AM21" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AN21" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AO21" t="n">
         <v>14</v>
@@ -4247,16 +4314,16 @@
         <v>4</v>
       </c>
       <c r="AS21" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AT21" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AU21" t="n">
         <v>30</v>
       </c>
       <c r="AV21" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AW21" t="n">
         <v>27</v>
@@ -4268,16 +4335,16 @@
         <v>24</v>
       </c>
       <c r="AZ21" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BA21" t="n">
         <v>15</v>
       </c>
       <c r="BB21" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="BC21" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-29-2007-08</t>
+          <t>2008-01-29</t>
         </is>
       </c>
     </row>
@@ -4399,10 +4466,10 @@
         <v>10</v>
       </c>
       <c r="AI22" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ22" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK22" t="n">
         <v>6</v>
@@ -4423,7 +4490,7 @@
         <v>3</v>
       </c>
       <c r="AQ22" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AR22" t="n">
         <v>27</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-29-2007-08</t>
+          <t>2008-01-29</t>
         </is>
       </c>
     </row>
@@ -4566,19 +4633,19 @@
         <v>-3</v>
       </c>
       <c r="AD23" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AE23" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF23" t="n">
         <v>24</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>23</v>
       </c>
       <c r="AG23" t="n">
         <v>24</v>
       </c>
       <c r="AH23" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI23" t="n">
         <v>22</v>
@@ -4614,19 +4681,19 @@
         <v>29</v>
       </c>
       <c r="AT23" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AU23" t="n">
         <v>27</v>
       </c>
       <c r="AV23" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AW23" t="n">
         <v>6</v>
       </c>
       <c r="AX23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY23" t="n">
         <v>17</v>
@@ -4641,7 +4708,7 @@
         <v>29</v>
       </c>
       <c r="BC23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-29-2007-08</t>
+          <t>2008-01-29</t>
         </is>
       </c>
     </row>
@@ -4670,37 +4737,37 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E24" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F24" t="n">
         <v>13</v>
       </c>
       <c r="G24" t="n">
-        <v>0.717</v>
+        <v>0.711</v>
       </c>
       <c r="H24" t="n">
         <v>48.1</v>
       </c>
       <c r="I24" t="n">
-        <v>41.7</v>
+        <v>41.4</v>
       </c>
       <c r="J24" t="n">
-        <v>84.3</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="K24" t="n">
-        <v>0.494</v>
+        <v>0.491</v>
       </c>
       <c r="L24" t="n">
-        <v>9.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="M24" t="n">
-        <v>23.5</v>
+        <v>23.7</v>
       </c>
       <c r="N24" t="n">
-        <v>0.385</v>
+        <v>0.386</v>
       </c>
       <c r="O24" t="n">
         <v>17.5</v>
@@ -4709,46 +4776,46 @@
         <v>22.2</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.788</v>
+        <v>0.787</v>
       </c>
       <c r="R24" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="S24" t="n">
         <v>32.2</v>
       </c>
       <c r="T24" t="n">
-        <v>40.6</v>
+        <v>40.7</v>
       </c>
       <c r="U24" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="V24" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="W24" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="X24" t="n">
-        <v>7.2</v>
+        <v>6.9</v>
       </c>
       <c r="Y24" t="n">
         <v>3.7</v>
       </c>
       <c r="Z24" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="AA24" t="n">
         <v>19.9</v>
       </c>
       <c r="AB24" t="n">
-        <v>109.8</v>
+        <v>109.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>6.2</v>
+        <v>5.6</v>
       </c>
       <c r="AD24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE24" t="n">
         <v>2</v>
@@ -4769,7 +4836,7 @@
         <v>6</v>
       </c>
       <c r="AK24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL24" t="n">
         <v>2</v>
@@ -4781,7 +4848,7 @@
         <v>3</v>
       </c>
       <c r="AO24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP24" t="n">
         <v>27</v>
@@ -4796,7 +4863,7 @@
         <v>6</v>
       </c>
       <c r="AT24" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AU24" t="n">
         <v>1</v>
@@ -4805,10 +4872,10 @@
         <v>6</v>
       </c>
       <c r="AW24" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AX24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY24" t="n">
         <v>3</v>
@@ -4817,7 +4884,7 @@
         <v>3</v>
       </c>
       <c r="BA24" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BB24" t="n">
         <v>1</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-29-2007-08</t>
+          <t>2008-01-29</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>0.8</v>
       </c>
       <c r="AD25" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AE25" t="n">
         <v>11</v>
@@ -4939,7 +5006,7 @@
         <v>8</v>
       </c>
       <c r="AG25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH25" t="n">
         <v>2</v>
@@ -4948,10 +5015,10 @@
         <v>21</v>
       </c>
       <c r="AJ25" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK25" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AL25" t="n">
         <v>11</v>
@@ -4966,7 +5033,7 @@
         <v>20</v>
       </c>
       <c r="AP25" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ25" t="n">
         <v>9</v>
@@ -4990,7 +5057,7 @@
         <v>30</v>
       </c>
       <c r="AX25" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AY25" t="n">
         <v>4</v>
@@ -5002,7 +5069,7 @@
         <v>18</v>
       </c>
       <c r="BB25" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BC25" t="n">
         <v>15</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-29-2007-08</t>
+          <t>2008-01-29</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>-2.7</v>
       </c>
       <c r="AD26" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="AE26" t="n">
         <v>17</v>
@@ -5124,7 +5191,7 @@
         <v>18</v>
       </c>
       <c r="AH26" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI26" t="n">
         <v>20</v>
@@ -5139,7 +5206,7 @@
         <v>15</v>
       </c>
       <c r="AM26" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AN26" t="n">
         <v>8</v>
@@ -5148,7 +5215,7 @@
         <v>4</v>
       </c>
       <c r="AP26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AQ26" t="n">
         <v>3</v>
@@ -5157,7 +5224,7 @@
         <v>25</v>
       </c>
       <c r="AS26" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AT26" t="n">
         <v>29</v>
@@ -5175,13 +5242,13 @@
         <v>29</v>
       </c>
       <c r="AY26" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AZ26" t="n">
         <v>24</v>
       </c>
       <c r="BA26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-29-2007-08</t>
+          <t>2008-01-29</t>
         </is>
       </c>
     </row>
@@ -5216,25 +5283,25 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E27" t="n">
         <v>28</v>
       </c>
       <c r="F27" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G27" t="n">
-        <v>0.636</v>
+        <v>0.651</v>
       </c>
       <c r="H27" t="n">
         <v>48.1</v>
       </c>
       <c r="I27" t="n">
-        <v>35.9</v>
+        <v>36</v>
       </c>
       <c r="J27" t="n">
-        <v>78.59999999999999</v>
+        <v>78.7</v>
       </c>
       <c r="K27" t="n">
         <v>0.457</v>
@@ -5243,67 +5310,67 @@
         <v>7.7</v>
       </c>
       <c r="M27" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="N27" t="n">
         <v>0.375</v>
       </c>
       <c r="O27" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="P27" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="Q27" t="n">
         <v>0.753</v>
       </c>
       <c r="R27" t="n">
-        <v>10</v>
+        <v>10.1</v>
       </c>
       <c r="S27" t="n">
         <v>31</v>
       </c>
       <c r="T27" t="n">
-        <v>41</v>
+        <v>41.1</v>
       </c>
       <c r="U27" t="n">
         <v>21.5</v>
       </c>
       <c r="V27" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="W27" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="X27" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="Y27" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>20</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="AC27" t="n">
         <v>4.7</v>
       </c>
-      <c r="Z27" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>19.9</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>96.3</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>4.5</v>
-      </c>
       <c r="AD27" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AE27" t="n">
         <v>6</v>
       </c>
       <c r="AF27" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG27" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AH27" t="n">
         <v>25</v>
@@ -5312,10 +5379,10 @@
         <v>19</v>
       </c>
       <c r="AJ27" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AK27" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AL27" t="n">
         <v>6</v>
@@ -5324,7 +5391,7 @@
         <v>6</v>
       </c>
       <c r="AN27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AO27" t="n">
         <v>25</v>
@@ -5342,16 +5409,16 @@
         <v>14</v>
       </c>
       <c r="AT27" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AU27" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AV27" t="n">
         <v>4</v>
       </c>
       <c r="AW27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AX27" t="n">
         <v>27</v>
@@ -5363,10 +5430,10 @@
         <v>1</v>
       </c>
       <c r="BA27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BB27" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BC27" t="n">
         <v>8</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-29-2007-08</t>
+          <t>2008-01-29</t>
         </is>
       </c>
     </row>
@@ -5398,16 +5465,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F28" t="n">
         <v>35</v>
       </c>
       <c r="G28" t="n">
-        <v>0.222</v>
+        <v>0.205</v>
       </c>
       <c r="H28" t="n">
         <v>48.3</v>
@@ -5425,22 +5492,22 @@
         <v>4.3</v>
       </c>
       <c r="M28" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="N28" t="n">
-        <v>0.33</v>
+        <v>0.333</v>
       </c>
       <c r="O28" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="P28" t="n">
-        <v>23</v>
+        <v>23.3</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.768</v>
+        <v>0.765</v>
       </c>
       <c r="R28" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="S28" t="n">
         <v>33.4</v>
@@ -5452,43 +5519,43 @@
         <v>21.1</v>
       </c>
       <c r="V28" t="n">
-        <v>15.9</v>
+        <v>16.1</v>
       </c>
       <c r="W28" t="n">
         <v>6.6</v>
       </c>
       <c r="X28" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Y28" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Z28" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="AA28" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AB28" t="n">
-        <v>96.59999999999999</v>
+        <v>96.8</v>
       </c>
       <c r="AC28" t="n">
-        <v>-8</v>
+        <v>-8.199999999999999</v>
       </c>
       <c r="AD28" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AE28" t="n">
         <v>28</v>
       </c>
       <c r="AF28" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AG28" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AH28" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI28" t="n">
         <v>8</v>
@@ -5500,22 +5567,22 @@
         <v>28</v>
       </c>
       <c r="AL28" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AM28" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AN28" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AO28" t="n">
         <v>22</v>
       </c>
       <c r="AP28" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AR28" t="n">
         <v>13</v>
@@ -5530,10 +5597,10 @@
         <v>19</v>
       </c>
       <c r="AV28" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AW28" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AX28" t="n">
         <v>8</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-29-2007-08</t>
+          <t>2008-01-29</t>
         </is>
       </c>
     </row>
@@ -5580,25 +5647,25 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E29" t="n">
         <v>24</v>
       </c>
       <c r="F29" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G29" t="n">
-        <v>0.545</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="H29" t="n">
-        <v>48.5</v>
+        <v>48.3</v>
       </c>
       <c r="I29" t="n">
         <v>37.2</v>
       </c>
       <c r="J29" t="n">
-        <v>81.40000000000001</v>
+        <v>81.3</v>
       </c>
       <c r="K29" t="n">
         <v>0.457</v>
@@ -5607,19 +5674,19 @@
         <v>7.5</v>
       </c>
       <c r="M29" t="n">
-        <v>18.1</v>
+        <v>17.9</v>
       </c>
       <c r="N29" t="n">
-        <v>0.416</v>
+        <v>0.418</v>
       </c>
       <c r="O29" t="n">
-        <v>16.2</v>
+        <v>16.1</v>
       </c>
       <c r="P29" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.8070000000000001</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="R29" t="n">
         <v>10</v>
@@ -5628,19 +5695,19 @@
         <v>30.7</v>
       </c>
       <c r="T29" t="n">
-        <v>40.7</v>
+        <v>40.6</v>
       </c>
       <c r="U29" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="V29" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="W29" t="n">
         <v>6.9</v>
       </c>
       <c r="X29" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Y29" t="n">
         <v>4.4</v>
@@ -5649,28 +5716,28 @@
         <v>20.1</v>
       </c>
       <c r="AA29" t="n">
-        <v>17.9</v>
+        <v>17.8</v>
       </c>
       <c r="AB29" t="n">
-        <v>98</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="AC29" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="AD29" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AE29" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF29" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG29" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AH29" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AI29" t="n">
         <v>10</v>
@@ -5679,7 +5746,7 @@
         <v>13</v>
       </c>
       <c r="AK29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL29" t="n">
         <v>8</v>
@@ -5700,7 +5767,7 @@
         <v>2</v>
       </c>
       <c r="AR29" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AS29" t="n">
         <v>15</v>
@@ -5715,13 +5782,13 @@
         <v>2</v>
       </c>
       <c r="AW29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AX29" t="n">
         <v>25</v>
       </c>
       <c r="AY29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ29" t="n">
         <v>7</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-29-2007-08</t>
+          <t>2008-01-29</t>
         </is>
       </c>
     </row>
@@ -5840,10 +5907,10 @@
         <v>5.3</v>
       </c>
       <c r="AD30" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AE30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF30" t="n">
         <v>8</v>
@@ -5861,7 +5928,7 @@
         <v>15</v>
       </c>
       <c r="AK30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL30" t="n">
         <v>28</v>
@@ -5870,19 +5937,19 @@
         <v>30</v>
       </c>
       <c r="AN30" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO30" t="n">
         <v>3</v>
       </c>
       <c r="AP30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AQ30" t="n">
         <v>16</v>
       </c>
       <c r="AR30" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AS30" t="n">
         <v>28</v>
@@ -5894,7 +5961,7 @@
         <v>2</v>
       </c>
       <c r="AV30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AW30" t="n">
         <v>2</v>
@@ -5909,7 +5976,7 @@
         <v>30</v>
       </c>
       <c r="BA30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BB30" t="n">
         <v>5</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-29-2007-08</t>
+          <t>2008-01-29</t>
         </is>
       </c>
     </row>
@@ -5944,55 +6011,55 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E31" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F31" t="n">
         <v>19</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5580000000000001</v>
+        <v>0.548</v>
       </c>
       <c r="H31" t="n">
-        <v>48.6</v>
+        <v>48.5</v>
       </c>
       <c r="I31" t="n">
-        <v>36.7</v>
+        <v>36.6</v>
       </c>
       <c r="J31" t="n">
-        <v>82</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="K31" t="n">
-        <v>0.448</v>
+        <v>0.449</v>
       </c>
       <c r="L31" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="M31" t="n">
-        <v>19.3</v>
+        <v>19.1</v>
       </c>
       <c r="N31" t="n">
         <v>0.347</v>
       </c>
       <c r="O31" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="P31" t="n">
         <v>24.2</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.796</v>
+        <v>0.795</v>
       </c>
       <c r="R31" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="S31" t="n">
-        <v>30.6</v>
+        <v>30.4</v>
       </c>
       <c r="T31" t="n">
-        <v>42.8</v>
+        <v>42.5</v>
       </c>
       <c r="U31" t="n">
         <v>19.6</v>
@@ -6007,34 +6074,34 @@
         <v>5</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Z31" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="AA31" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="AB31" t="n">
-        <v>99.40000000000001</v>
+        <v>99.2</v>
       </c>
       <c r="AC31" t="n">
         <v>2</v>
       </c>
       <c r="AD31" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AE31" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AF31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG31" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI31" t="n">
         <v>12</v>
@@ -6049,7 +6116,7 @@
         <v>12</v>
       </c>
       <c r="AM31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AN31" t="n">
         <v>18</v>
@@ -6079,13 +6146,13 @@
         <v>9</v>
       </c>
       <c r="AW31" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY31" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AZ31" t="n">
         <v>5</v>
@@ -6094,7 +6161,7 @@
         <v>27</v>
       </c>
       <c r="BB31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BC31" t="n">
         <v>12</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-29-2007-08</t>
+          <t>2008-01-29</t>
         </is>
       </c>
     </row>
